--- a/va_facility_data_2025-02-20/Lance Corporal Dana Cornell Darnell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lance%20Corporal%20Dana%20Cornell%20Darnell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lance Corporal Dana Cornell Darnell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lance%20Corporal%20Dana%20Cornell%20Darnell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc23af9792d4949429840da213fae0bd3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0dac09c5512741ea866e345ed3f618f1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R76188f863e7349da9239bbdacae2afed"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfeb25bb50b644ce29cfe864061cfc579"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R77e595d44d1743d6b37e1fd69199e17f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R73707b5b4a4d4f8a949887152461da60"/>
   </x:sheets>
 </x:workbook>
 </file>
